--- a/список_картриджей.xlsx
+++ b/список_картриджей.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zai4i\OneDrive\Рабочий стол\росатом\rosatom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zai4i\OneDrive\Рабочий стол\росатом\rosatom_update\rosatom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98FBE5E-46C6-4909-8257-42461A23E36E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" xr2:uid="{7560A6BD-85E4-4235-9037-C5A86E0D02E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>cartridge</t>
   </si>
@@ -40,16 +39,28 @@
   </si>
   <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>fgh</t>
+  </si>
+  <si>
+    <t>5rtdgf</t>
+  </si>
+  <si>
+    <t>dsffbf</t>
+  </si>
+  <si>
+    <t>fdsgg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-419]General"/>
+    <numFmt numFmtId="164" formatCode="[$-419]General"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +68,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -124,18 +128,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CBFF27-86BB-4F69-9D8B-0888F314ED04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,42 +469,54 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
     </row>

--- a/список_картриджей.xlsx
+++ b/список_картриджей.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zai4i\OneDrive\Рабочий стол\росатом\rosatom_update\rosatom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Санёк\Downloads\rosatom--\rosatom--\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]General"/>
   </numFmts>
@@ -456,16 +456,16 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -509,7 +509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>

--- a/список_картриджей.xlsx
+++ b/список_картриджей.xlsx
@@ -5,43 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zai4i\OneDrive\Рабочий стол\росатом\rosatom_update\rosatom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zai4i\OneDrive\Рабочий стол\росатом\rosatom--\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>cartridge</t>
-  </si>
-  <si>
-    <t>quantity</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+  <si>
+    <t>Картридж</t>
+  </si>
+  <si>
+    <t>Организация</t>
+  </si>
+  <si>
+    <t>Количество</t>
   </si>
   <si>
     <t>SF-CF283X/737 - Картридж HP CF283X/Canon 737 LJ Pro MFP M201/M225 2.5K SuperFine</t>
   </si>
   <si>
+    <t>fgh</t>
+  </si>
+  <si>
     <t>SF-TK1200 - Картридж Kyocera TK1200 EcoSys-M2235/P2335/M2735/M2835 3K SuperFine</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>fgh</t>
   </si>
   <si>
     <t>5rtdgf</t>
@@ -57,48 +52,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-419]General"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -128,23 +101,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -157,9 +124,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,44 +134,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -231,32 +198,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -283,27 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -312,216 +243,271 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/список_картриджей.xlsx
+++ b/список_картриджей.xlsx
@@ -1,37 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zai4i\OneDrive\Рабочий стол\росатом\успех\rosatom\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+  <si>
+    <t>Картридж</t>
+  </si>
+  <si>
+    <t>Организация</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Было</t>
+  </si>
+  <si>
+    <t>SF-TK8335M - Картридж Kyocera TK8335M TASKalfa-3252/3253 15K</t>
+  </si>
+  <si>
+    <t>SF-006R01573 - Картридж Xerox 006R01573 WC5019/5021/5022/5024</t>
+  </si>
+  <si>
+    <t>SF-CF226X/052H - Картридж HP UNIVERSAL CF226X/CRG052H 9K</t>
+  </si>
+  <si>
+    <t>SFR-C4844 Картридж HP С4844 No 10 black SuperFine</t>
+  </si>
+  <si>
+    <t>SF-006R01517 - Картридж Xerox 006R01517 WC7500ser/7800ser 26K B</t>
+  </si>
+  <si>
+    <t>SF-006R01518 - Картридж Xerox 006R01518 WC 7500s/7800s 15K Y</t>
+  </si>
+  <si>
+    <t>SF-006R01519 - Картридж Xerox 006R01519 WC 7500s/7800s 15K M</t>
+  </si>
+  <si>
+    <t>SF-006R01520 - Картридж Xerox 006R01520 WC 7500s/7800s 15K Cyan</t>
+  </si>
+  <si>
+    <t>OEM CC364A/CE390A - Картридж HP UNIVERSAL CC364A/CE390A</t>
+  </si>
+  <si>
+    <t>OEM Q7516A - Картридж HP Q7516A LJ 5200 13K Compatible (R)</t>
+  </si>
+  <si>
+    <t>Струйный картридж Sakura C13T693500 (T6935 Matte Black) для</t>
+  </si>
+  <si>
+    <t>SF-CF230X/051H Картридж HP UNIVERSAL CF230X/CRG051H 4K</t>
+  </si>
+  <si>
+    <t>SF-TK8335C - Картридж Kyocera TK8335C TASKalfa-3252/3253 15K</t>
+  </si>
+  <si>
+    <t>SF-TK8335K - Картридж Kyocera TK8335K TASKalfa-3252/3253 25K</t>
+  </si>
+  <si>
+    <t>SF-TK8335Y - Картридж Kyocera TK8335Y TASKalfa-3252/3253 15K</t>
+  </si>
+  <si>
+    <t>Тонер-картридж Hi-Black (HB-KX-FAT411A) для Panasonic</t>
+  </si>
+  <si>
+    <t>SF-CF259X/CRG057H(БЧ) - Картридж HP CF259X/CRG-057H БЕЗ</t>
+  </si>
+  <si>
+    <t>OEM CE278A/CE285A 4in1 Картридж HP CE285A/CE278A/CB435A/CB436A Universal 2K Compatible</t>
+  </si>
+  <si>
+    <t>SF-W1360A(СЧ) - Картридж HP W1360A С ЧИПОМ LJ-M211/M236</t>
+  </si>
+  <si>
+    <t>OEM CEXV42 Тонер Canon C-EXV42 IR2202/2202N 10K Compatible</t>
+  </si>
+  <si>
+    <t>Тонер-картридж Hi-Black (HB-No034 C) для Canon iR Adv C1225/C1225iF/MF810/820, C, 7,3К</t>
+  </si>
+  <si>
+    <t>SF-CEXV33 - Тонер Canon C-EXV33 IR2520/2525/2530 туба 14.6K</t>
+  </si>
+  <si>
+    <t>SF-TK1200 Картридж SuperFine для Kyocera TK1200</t>
+  </si>
+  <si>
+    <t>Картридж Hi-Black (HB-CF530A) для HP CLJ Pro M154A/M180n/M181fw,</t>
+  </si>
+  <si>
+    <t>SF-CF531A - Картридж HP CF531A CLJ M180/M181 0.9K Cyan</t>
+  </si>
+  <si>
+    <t>SF-CF532A - Картридж HP CF532A CLJ M180/M181 0.9K Yellow</t>
+  </si>
+  <si>
+    <t>SF-CF533A - Картридж HP CF533A CLJ M180/M181 0.9K Magenta</t>
+  </si>
+  <si>
+    <t>Струйный картридж NV Print 82 (NV-C4913A) Yellow для HP DesignJet</t>
+  </si>
+  <si>
+    <t>Струйный картридж NV Print 82 (NV- C4911A) Cyan для HP DesignJet</t>
+  </si>
+  <si>
+    <t>Струйный картридж NV Print 82 (NV-C4912A) Magenta для HP</t>
+  </si>
+  <si>
+    <t>АО "НИИГРАФИТ"</t>
+  </si>
+  <si>
+    <t>АО Гиредмет</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +166,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,165 +490,452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="84.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Картридж</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Организация</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Количество</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Было</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SF-CF283X/737 - Картридж HP CF283X/Canon 737 LJ Pro MFP M201/M225 2.5K SuperFine</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>fgh</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SF-TK1200 - Картридж Kyocera TK1200 EcoSys-M2235/P2335/M2735/M2835 3K SuperFine</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5rtdgf</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SF-TK1200 - Картридж Kyocera TK1200 EcoSys-M2235/P2335/M2735/M2835 3K SuperFine</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dsffbf</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SF-TK1200 - Картридж Kyocera TK1200 EcoSys-M2235/P2335/M2735/M2835 3K SuperFine</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>fdsgg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SF-TK1200 - Картридж Kyocera TK1200 EcoSys-M2235/P2335/M2735/M2835 3K SuperFine</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>fdsgg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SF-TK1200 - Картридж Kyocera TK1200 EcoSys-M2235/P2335/M2735/M2835 3K SuperFine</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>fdsgg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SF-TK1200 - Картридж Kyocera TK1200 EcoSys-M2235/P2335/M2735/M2835 3K SuperFine</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>fdsgg</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
